--- a/data/trans_orig/P79A5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A5_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9355</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5560</v>
+        <v>5544</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11977</v>
+        <v>11931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.714053351609396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4243970744798484</v>
+        <v>0.4231678563687092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.914197114719503</v>
+        <v>0.9107277430348341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -762,19 +762,19 @@
         <v>18214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15068</v>
+        <v>15096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20179</v>
+        <v>20259</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8547347958017986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7070855017466108</v>
+        <v>0.7083990107313805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9469106198958421</v>
+        <v>0.9507018422029923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -783,19 +783,19 @@
         <v>27569</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22414</v>
+        <v>22917</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31090</v>
+        <v>31308</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8011750908020172</v>
+        <v>0.8011750908020171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.651348536015493</v>
+        <v>0.6659732801774405</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9034988961405096</v>
+        <v>0.9098371056380052</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>3746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1124</v>
+        <v>1170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7541</v>
+        <v>7557</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.285946648390604</v>
+        <v>0.2859466483906041</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08580288528049697</v>
+        <v>0.08927225696516607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5756029255201516</v>
+        <v>0.5768321436312907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>3096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1131</v>
+        <v>1051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6242</v>
+        <v>6214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1452652041982016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0530893801041579</v>
+        <v>0.04929815779700777</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2929144982533892</v>
+        <v>0.2916009892686195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>6842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3321</v>
+        <v>3103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11997</v>
+        <v>11494</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1988249091979827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09650110385949037</v>
+        <v>0.09016289436199453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3486514639845069</v>
+        <v>0.3340267198225591</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>23995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18504</v>
+        <v>18297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27711</v>
+        <v>27651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7884736588449159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6080511594297817</v>
+        <v>0.6012574122530304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.910571368553084</v>
+        <v>0.9086070494515849</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -979,19 +979,19 @@
         <v>15649</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10328</v>
+        <v>10621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18555</v>
+        <v>18634</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7556091358416932</v>
+        <v>0.7556091358416933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4986658358798315</v>
+        <v>0.5128333991998494</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8958943152162233</v>
+        <v>0.899707278611934</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -1000,19 +1000,19 @@
         <v>39644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33029</v>
+        <v>32815</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44525</v>
+        <v>44560</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7751647709666034</v>
+        <v>0.7751647709666033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6458148594732571</v>
+        <v>0.6416248996524767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8706022217795851</v>
+        <v>0.8712874797781398</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>6437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2721</v>
+        <v>2781</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11928</v>
+        <v>12135</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2115263411550841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08942863144691592</v>
+        <v>0.09139295054841512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3919488405702181</v>
+        <v>0.3987425877469696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1050,19 +1050,19 @@
         <v>5062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2156</v>
+        <v>2077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10383</v>
+        <v>10090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2443908641583067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1041056847837766</v>
+        <v>0.100292721388066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5013341641201685</v>
+        <v>0.4871666008001507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1071,19 +1071,19 @@
         <v>11499</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6618</v>
+        <v>6583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18114</v>
+        <v>18328</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2248352290333966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1293977782204149</v>
+        <v>0.1287125202218606</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3541851405267429</v>
+        <v>0.3583751003475264</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         <v>4078</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1278</v>
+        <v>763</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>5860</v>
@@ -1218,7 +1218,7 @@
         <v>0.6959276459788166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2180486084309816</v>
+        <v>0.1301560765187573</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4487</v>
+        <v>5075</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3040723540211833</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.765636160885824</v>
+        <v>0.86599740597686</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>36725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30472</v>
+        <v>29642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42073</v>
+        <v>41172</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7829098225848206</v>
+        <v>0.7829098225848208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6496181376544554</v>
+        <v>0.6319128372185565</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8969337726780046</v>
+        <v>0.8777225746063466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1397,19 +1397,19 @@
         <v>34566</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29082</v>
+        <v>29187</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38957</v>
+        <v>38877</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7766793965992853</v>
+        <v>0.7766793965992854</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6534516627295398</v>
+        <v>0.6558198130645958</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8753391610379334</v>
+        <v>0.8735485801946213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1418,19 +1418,19 @@
         <v>71291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63054</v>
+        <v>63065</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78208</v>
+        <v>78201</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7798764834244846</v>
+        <v>0.7798764834244849</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6897675212564072</v>
+        <v>0.6898889039084847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8555444733097026</v>
+        <v>0.8554703021197981</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>10183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4835</v>
+        <v>5736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16436</v>
+        <v>17266</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2170901774151792</v>
+        <v>0.2170901774151793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.103066227321996</v>
+        <v>0.1222774253936535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3503818623455462</v>
+        <v>0.3680871627814439</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -1468,19 +1468,19 @@
         <v>9939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5548</v>
+        <v>5628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15423</v>
+        <v>15318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2233206034007148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1246608389620668</v>
+        <v>0.1264514198053785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.346548337270461</v>
+        <v>0.3441801869354043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1489,19 +1489,19 @@
         <v>20122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13205</v>
+        <v>13212</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28359</v>
+        <v>28348</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2201235165755154</v>
+        <v>0.2201235165755155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1444555266902974</v>
+        <v>0.1445296978802019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3102324787435927</v>
+        <v>0.3101110960915158</v>
       </c>
     </row>
     <row r="15">
